--- a/datafiles/logMgtData.xlsx
+++ b/datafiles/logMgtData.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="getLicense" sheetId="31" r:id="rId1"/>
-    <sheet name="getLicenseCode" sheetId="33" r:id="rId2"/>
+    <sheet name="getLoginLog" sheetId="31" r:id="rId1"/>
+    <sheet name="getOperateLog" sheetId="33" r:id="rId2"/>
     <sheet name="getUkey" sheetId="32" r:id="rId3"/>
     <sheet name="editUKey" sheetId="34" r:id="rId4"/>
     <sheet name="getSysnet" sheetId="35" r:id="rId5"/>
@@ -60,7 +60,7 @@
     </r>
   </si>
   <si>
-    <t>系统设置-授权管理-获取license-缺少token</t>
+    <t>日志管理-登录日志-获取日志-缺少token</t>
   </si>
   <si>
     <t>{
@@ -73,13 +73,13 @@
     <t>002</t>
   </si>
   <si>
-    <t>系统设置-授权管理-获取license-成功</t>
-  </si>
-  <si>
-    <t>系统设置-授权管理-获取机器码-缺少token</t>
-  </si>
-  <si>
-    <t>系统设置-授权管理-获取机器码-成功</t>
+    <t>日志管理-登录日志-获取日志-成功</t>
+  </si>
+  <si>
+    <t>日志管理-操作日志-获取日志-缺少token</t>
+  </si>
+  <si>
+    <t>日志管理-操作日志-获取日志-成功</t>
   </si>
   <si>
     <t>系统设置-安全设置-获取ukey-缺少token</t>
@@ -1248,8 +1248,8 @@
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -1402,7 +1402,7 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
